--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/100.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/100.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2418353405151772</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.581181484834924</v>
+        <v>-1.57434553967329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05208233143490997</v>
+        <v>0.06575130166199722</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09651844316159558</v>
+        <v>-0.1340270786170401</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2185980752597431</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.685407017804442</v>
+        <v>-1.659302817987085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02143300191055457</v>
+        <v>0.05236558076454626</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0847402352122351</v>
+        <v>-0.1173080679280445</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2056122322679446</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.776303771752054</v>
+        <v>-1.771357128820055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03159055647900639</v>
+        <v>0.1004259837729879</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1360492452229486</v>
+        <v>-0.1945957136202965</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2078580901187838</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.957115397306141</v>
+        <v>-1.971249392850183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08762574215999135</v>
+        <v>0.1287260959190712</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1566841048917612</v>
+        <v>-0.1859974904129352</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.219211619939158</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047915788079754</v>
+        <v>-2.124301854075869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625393496564258</v>
+        <v>0.1473796703285208</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1600553559336694</v>
+        <v>-0.1902024289147523</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2210051760995884</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.95302361253137</v>
+        <v>-1.954280713937642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2743177114002139</v>
+        <v>0.2916003006523002</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1860383717594806</v>
+        <v>-0.2115804530618374</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1890699725202154</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.731195585983429</v>
+        <v>-1.7054885192468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3575462927743734</v>
+        <v>0.3341023005786524</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1754340424752107</v>
+        <v>-0.2232170363463797</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1053896481723319</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.324827701081266</v>
+        <v>-1.27129795792428</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4031494348458157</v>
+        <v>0.4044663982238154</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1710597383948483</v>
+        <v>-0.1851097811736627</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04117174883765756</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8449785158598492</v>
+        <v>-0.7537590912841464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4058213228521786</v>
+        <v>0.4093210581260868</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1253719135341333</v>
+        <v>-0.1522616192243988</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2532677997615581</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2477560646102822</v>
+        <v>-0.1478843950478545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3166664062770208</v>
+        <v>0.3235724337470189</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09040522180496086</v>
+        <v>-0.119987256174862</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5234861702448518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4412917311727145</v>
+        <v>0.6202001840403029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1281289362498896</v>
+        <v>0.09056627901508146</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003205761543650372</v>
+        <v>0.008428353564830788</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.8360338689922251</v>
       </c>
       <c r="E13" t="n">
-        <v>1.126314174369076</v>
+        <v>1.254995512861314</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1523244012923079</v>
+        <v>-0.2107496856981104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1086635751018948</v>
+        <v>0.1746854897246952</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.174650267367038</v>
       </c>
       <c r="E14" t="n">
-        <v>1.883779823692054</v>
+        <v>2.017854579832109</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5255769354445713</v>
+        <v>-0.7087677093627948</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2326318783566797</v>
+        <v>0.2264164536336813</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.520645851923592</v>
       </c>
       <c r="E15" t="n">
-        <v>2.637875682021216</v>
+        <v>2.84319202470907</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9053661048998329</v>
+        <v>-1.103710717953598</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3714094493975515</v>
+        <v>0.4297807120239904</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.856006441140402</v>
       </c>
       <c r="E16" t="n">
-        <v>3.260145258270321</v>
+        <v>3.552679033716697</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.313610151598814</v>
+        <v>-1.57804238143947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5166053918460579</v>
+        <v>0.5944449357166735</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.172566409435331</v>
       </c>
       <c r="E17" t="n">
-        <v>3.880499251424155</v>
+        <v>4.218900437646427</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.681822599741261</v>
+        <v>-1.908274598593109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6574883522340201</v>
+        <v>0.7351643707184539</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.465792262851047</v>
       </c>
       <c r="E18" t="n">
-        <v>4.41105590684283</v>
+        <v>4.78507350619473</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.011370054340263</v>
+        <v>-2.359541152362851</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8503636251392411</v>
+        <v>0.9438534244963068</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.72861095857724</v>
       </c>
       <c r="E19" t="n">
-        <v>4.846271421925168</v>
+        <v>5.233990112562155</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.387367478903435</v>
+        <v>-2.699148338308215</v>
       </c>
       <c r="G19" t="n">
-        <v>1.018999179639196</v>
+        <v>1.116593174179806</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.956732195458553</v>
       </c>
       <c r="E20" t="n">
-        <v>5.255445519258058</v>
+        <v>5.56529254496643</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.727373257977616</v>
+        <v>-3.022770187730264</v>
       </c>
       <c r="G20" t="n">
-        <v>1.183945192613424</v>
+        <v>1.268813407993674</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.146359682554407</v>
       </c>
       <c r="E21" t="n">
-        <v>5.577091193589062</v>
+        <v>5.908949904315974</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.010455412107495</v>
+        <v>-3.335610312024999</v>
       </c>
       <c r="G21" t="n">
-        <v>1.293704307847486</v>
+        <v>1.424277868665542</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.293800871519934</v>
       </c>
       <c r="E22" t="n">
-        <v>5.845281587215718</v>
+        <v>6.180572871004355</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.321276289892503</v>
+        <v>-3.607309931238153</v>
       </c>
       <c r="G22" t="n">
-        <v>1.405584872957637</v>
+        <v>1.498464372212703</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.39935863003625</v>
       </c>
       <c r="E23" t="n">
-        <v>5.967151801363867</v>
+        <v>6.229961917775523</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.552188735662077</v>
+        <v>-3.838678642036136</v>
       </c>
       <c r="G23" t="n">
-        <v>1.514701567031699</v>
+        <v>1.60227087138013</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.46599387335617</v>
       </c>
       <c r="E24" t="n">
-        <v>6.049264905996572</v>
+        <v>6.357830009481126</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.747465057652797</v>
+        <v>-4.075866374500436</v>
       </c>
       <c r="G24" t="n">
-        <v>1.625907589923851</v>
+        <v>1.719163781586371</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.495961199138724</v>
       </c>
       <c r="E25" t="n">
-        <v>6.073482723680475</v>
+        <v>6.32229681909268</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.843342765662544</v>
+        <v>-4.225086209487487</v>
       </c>
       <c r="G25" t="n">
-        <v>1.651716860026844</v>
+        <v>1.711110156316919</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.490257301293778</v>
       </c>
       <c r="E26" t="n">
-        <v>5.986271131114316</v>
+        <v>6.231315382355796</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.938507970203927</v>
+        <v>-4.258191339900751</v>
       </c>
       <c r="G26" t="n">
-        <v>1.66629982035884</v>
+        <v>1.676206246655656</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.45456003305626</v>
       </c>
       <c r="E27" t="n">
-        <v>5.847073066223263</v>
+        <v>6.092277922754743</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.985192277886688</v>
+        <v>-4.282699707154745</v>
       </c>
       <c r="G27" t="n">
-        <v>1.675959498528292</v>
+        <v>1.709603386687101</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.391925961329453</v>
       </c>
       <c r="E28" t="n">
-        <v>5.740977211649292</v>
+        <v>6.018792242291217</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.949505052424652</v>
+        <v>-4.239735602007619</v>
       </c>
       <c r="G28" t="n">
-        <v>1.642344811331301</v>
+        <v>1.665892466941477</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.302484676039803</v>
       </c>
       <c r="E29" t="n">
-        <v>5.487956717687178</v>
+        <v>5.735794040926566</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.933323339433111</v>
+        <v>-4.223740775171715</v>
       </c>
       <c r="G29" t="n">
-        <v>1.591444614786042</v>
+        <v>1.620604695257671</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.190988071239425</v>
       </c>
       <c r="E30" t="n">
-        <v>5.343346254523126</v>
+        <v>5.629435377696231</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.865686611621765</v>
+        <v>-4.19941418390504</v>
       </c>
       <c r="G30" t="n">
-        <v>1.540726924252147</v>
+        <v>1.621669070315943</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.060406702468409</v>
       </c>
       <c r="E31" t="n">
-        <v>5.075069718059106</v>
+        <v>5.378857544190207</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.743149155496071</v>
+        <v>-4.073717183710619</v>
       </c>
       <c r="G31" t="n">
-        <v>1.415665044977271</v>
+        <v>1.454046789191079</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.911972101969272</v>
       </c>
       <c r="E32" t="n">
-        <v>4.805569661294906</v>
+        <v>5.027685317316756</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.570613812545299</v>
+        <v>-3.895186883298575</v>
       </c>
       <c r="G32" t="n">
-        <v>1.301477603883484</v>
+        <v>1.350316212524379</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.750663304214559</v>
       </c>
       <c r="E33" t="n">
-        <v>4.501184675494624</v>
+        <v>4.778088636127823</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.377736349567942</v>
+        <v>-3.714305905460169</v>
       </c>
       <c r="G33" t="n">
-        <v>1.22629242744214</v>
+        <v>1.334847003001202</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.581343775559818</v>
       </c>
       <c r="E34" t="n">
-        <v>4.14507310592963</v>
+        <v>4.390505729963291</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.212498326975532</v>
+        <v>-3.545297308672988</v>
       </c>
       <c r="G34" t="n">
-        <v>1.125606051044985</v>
+        <v>1.251238809123406</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.404758954516539</v>
       </c>
       <c r="E35" t="n">
-        <v>3.798657715736359</v>
+        <v>4.034575206361568</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.05071331811812</v>
+        <v>-3.443442893803106</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0367446041361</v>
+        <v>1.202474662935147</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.221254080016959</v>
       </c>
       <c r="E36" t="n">
-        <v>3.459056369983359</v>
+        <v>3.716119737109199</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.931870513686471</v>
+        <v>-3.287783516711102</v>
       </c>
       <c r="G36" t="n">
-        <v>0.913131092567406</v>
+        <v>1.058148909148822</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.03373303834114</v>
       </c>
       <c r="E37" t="n">
-        <v>3.088884537302913</v>
+        <v>3.323261677192213</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.800467645552779</v>
+        <v>-3.150654339964866</v>
       </c>
       <c r="G37" t="n">
-        <v>0.815167705859796</v>
+        <v>0.929730379312947</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.844518481744337</v>
       </c>
       <c r="E38" t="n">
-        <v>2.740988658345461</v>
+        <v>3.008362885089298</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.669269184151814</v>
+        <v>-2.981167577427912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7278393094463649</v>
+        <v>0.8359748512033358</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.656027183366857</v>
       </c>
       <c r="E39" t="n">
-        <v>2.408566369055459</v>
+        <v>2.611378729267404</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.559794048271434</v>
+        <v>-2.854879257756673</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6543901301851118</v>
+        <v>0.738696227050362</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.477541983748879</v>
       </c>
       <c r="E40" t="n">
-        <v>2.153969023155164</v>
+        <v>2.261662170340589</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.438659698361103</v>
+        <v>-2.746432725756339</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5539621823000479</v>
+        <v>0.6412934988096608</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.313303504142675</v>
       </c>
       <c r="E41" t="n">
-        <v>1.907128912761866</v>
+        <v>2.028101197334107</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.349014935651445</v>
+        <v>-2.615246674764147</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4846975008673393</v>
+        <v>0.5627706524325001</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.164264181479604</v>
       </c>
       <c r="E42" t="n">
-        <v>1.643780038604664</v>
+        <v>1.643495329226937</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.260443308288605</v>
+        <v>-2.489913956568408</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4208072564572655</v>
+        <v>0.5179296554645122</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.032316980306752</v>
       </c>
       <c r="E43" t="n">
-        <v>1.443879014285991</v>
+        <v>1.495674220310977</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.196011386036805</v>
+        <v>-2.454133288028554</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3428158675851956</v>
+        <v>0.4367801825718067</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9166201243991474</v>
       </c>
       <c r="E44" t="n">
-        <v>1.244884679831771</v>
+        <v>1.249521792568498</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.152992529086271</v>
+        <v>-2.426204758121606</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3038968256739333</v>
+        <v>0.3716196963226424</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8134794641823622</v>
       </c>
       <c r="E45" t="n">
-        <v>1.081391414707997</v>
+        <v>1.079156081080816</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.061595708667523</v>
+        <v>-2.311493889787228</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2178080100896836</v>
+        <v>0.2763865995450316</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7206575831492119</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8987116576215918</v>
+        <v>0.839633731719153</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.017820546805898</v>
+        <v>-2.287880532012962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2010962996411427</v>
+        <v>0.3224292160918374</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6371040108552019</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6593805745598378</v>
+        <v>0.5075866747885149</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.938822454775146</v>
+        <v>-2.238218456248793</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1567444187836091</v>
+        <v>0.2513088135355838</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5607516912852355</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5429125383480509</v>
+        <v>0.3691390746161885</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.871025851697846</v>
+        <v>-2.138871673975047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1137022010636207</v>
+        <v>0.1802234521335119</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4910289238641768</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3910514763645462</v>
+        <v>0.1716967712826051</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.779625381158871</v>
+        <v>-2.072017531940429</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07033731271554143</v>
+        <v>0.1519364804202468</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4301009683598536</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2965513237285716</v>
+        <v>0.06013303660818054</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.722235270849523</v>
+        <v>-1.969125022877911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02650520897837139</v>
+        <v>0.0754839822359946</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3793329249426651</v>
       </c>
       <c r="E51" t="n">
-        <v>0.176111956709513</v>
+        <v>-0.01682025807125334</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.674389494910445</v>
+        <v>-1.922910850680423</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01957536881879806</v>
+        <v>0.05812255038699926</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3397146022836224</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1003471411760788</v>
+        <v>-0.08586155214605298</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612553538164279</v>
+        <v>-1.827786527485585</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03844211024952026</v>
+        <v>0.02517218507137175</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3124619876269685</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01817417457164635</v>
+        <v>-0.1970704951343868</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.558350712837385</v>
+        <v>-1.770340935348782</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09054976656596081</v>
+        <v>-0.04121328152606497</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2966154409427538</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.02303276269806985</v>
+        <v>-0.146260821570764</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.538774388034481</v>
+        <v>-1.75981252856524</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1246170686711335</v>
+        <v>-0.1017687760965033</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2896393797469549</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1381838355318571</v>
+        <v>-0.2973582784027234</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.538803588996299</v>
+        <v>-1.761125111798967</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1512279051760354</v>
+        <v>-0.1370493781652211</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2897382242823698</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1954118805031145</v>
+        <v>-0.3693722303906132</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.503998962605218</v>
+        <v>-1.68183720022217</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1974194466281139</v>
+        <v>-0.1595209783323968</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2951190230122694</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2715241874821849</v>
+        <v>-0.3655498244886142</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.513378311541215</v>
+        <v>-1.673742693606172</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1884824922636618</v>
+        <v>-0.1692551189544851</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3032710671928382</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3058542982437212</v>
+        <v>-0.368351656775068</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.53359851755221</v>
+        <v>-1.662484262777175</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2668797745050044</v>
+        <v>-0.233127842787468</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3126792261750038</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3725463749402487</v>
+        <v>-0.4287582264402336</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.55164325190775</v>
+        <v>-1.642031909119726</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3087276728866295</v>
+        <v>-0.2828074391287274</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3227615678867568</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4152673820802373</v>
+        <v>-0.3797356517398832</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.578522737261379</v>
+        <v>-1.626561239548457</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3284719032199878</v>
+        <v>-0.2618688894570057</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3322691436704178</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.49294194051658</v>
+        <v>-0.4765383002152208</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.590232322950467</v>
+        <v>-1.670946701512082</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3839303699050639</v>
+        <v>-0.3479372643679826</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3407999229427571</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6248558254820901</v>
+        <v>-0.6051539365433681</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.632865727205001</v>
+        <v>-1.671786229164354</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4089906353374207</v>
+        <v>-0.3812424213697009</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3483443020730918</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7228162920935183</v>
+        <v>-0.660294112744626</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.698721196345438</v>
+        <v>-1.778014948114599</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4321002765203236</v>
+        <v>-0.4150804959246009</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3544359374093684</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.845556694903849</v>
+        <v>-0.7721425567967778</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.712102537098616</v>
+        <v>-1.785200574794006</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4727582357078582</v>
+        <v>-0.4542696467326813</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3579205252040206</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9052288603792875</v>
+        <v>-0.868504270748661</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.718910741346524</v>
+        <v>-1.725041483280249</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4936135626383981</v>
+        <v>-0.5068313780053945</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3578025320565159</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9695834000822703</v>
+        <v>-0.9504071284562754</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.816820836298815</v>
+        <v>-1.907685469188428</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5074007967608489</v>
+        <v>-0.514226521585847</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3518958473919689</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.019915637920166</v>
+        <v>-0.9708580220656335</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.864030761294303</v>
+        <v>-1.916537010739561</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5147930202451196</v>
+        <v>-0.4973863269053061</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3377434969018588</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.092239120103328</v>
+        <v>-0.9846452561880844</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.919995134642879</v>
+        <v>-1.977576511252136</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5480894169582925</v>
+        <v>-0.5712194988144681</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3135351748253671</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.091977771495056</v>
+        <v>-0.9871959602029019</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.987772757094997</v>
+        <v>-2.025098156515032</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5600851720731984</v>
+        <v>-0.5357140493397504</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.278349222690057</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.120534852105139</v>
+        <v>-1.038069875882525</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.043442200729209</v>
+        <v>-2.128861584263777</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5647047642328334</v>
+        <v>-0.5720020845911952</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2331481614059942</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.086871983321148</v>
+        <v>-1.045584743406432</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.094084698786423</v>
+        <v>-2.229331873543477</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.610575095104912</v>
+        <v>-0.6718168122780774</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.18017257355599</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.059138369834337</v>
+        <v>-1.052642615877884</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.14225022525741</v>
+        <v>-2.297958513960459</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6047159221160955</v>
+        <v>-0.6431370876283579</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1226184232572365</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9766003912071775</v>
+        <v>-0.9614728329372724</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.139129372463092</v>
+        <v>-2.296834276930459</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6414156909291765</v>
+        <v>-0.6972304093484343</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06398800599435132</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9097739900862863</v>
+        <v>-0.9239933984436461</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.143402203201137</v>
+        <v>-2.320652041437453</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6342234940333603</v>
+        <v>-0.7453170932225123</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.007955097668877004</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7483948745981478</v>
+        <v>-0.743242364885331</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.114231902392872</v>
+        <v>-2.32932326704936</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6157407452505471</v>
+        <v>-0.7317736871312431</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04280816936295204</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6056474327980952</v>
+        <v>-0.6301689404849068</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.065253129135249</v>
+        <v>-2.207659649706074</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5909943901577356</v>
+        <v>-0.7050416666347958</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08605583635901277</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4360117453558681</v>
+        <v>-0.4646257678414967</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.062802438414658</v>
+        <v>-2.276456385725647</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5655953935682878</v>
+        <v>-0.632484576757088</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1212264657336746</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2819839720054549</v>
+        <v>-0.2906887787234526</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.027163394539623</v>
+        <v>-2.187432873478671</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.572037125745377</v>
+        <v>-0.6577974305091722</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1477870120236655</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.08396202957978077</v>
+        <v>-0.1005306553154127</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.99827853313313</v>
+        <v>-2.169634887250493</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5043025747119406</v>
+        <v>-0.5498969564948375</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1661562140633294</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1111587972892577</v>
+        <v>0.06629297950372434</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.962705921446231</v>
+        <v>-2.125269135936096</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4747351408229485</v>
+        <v>-0.5198258060144819</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.176618104675132</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2923566055633909</v>
+        <v>0.2311134283421346</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.911218785568426</v>
+        <v>-2.028963633835713</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3850093454442454</v>
+        <v>-0.3950851373196063</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1793263354194617</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5106921970778777</v>
+        <v>0.4663446963646169</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.849193022570443</v>
+        <v>-1.971615864921001</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3175434432595362</v>
+        <v>-0.3321264035915323</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.174723027040423</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7435713276259062</v>
+        <v>0.7191418029688218</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.774646617168872</v>
+        <v>-1.90366522677011</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2756356829061838</v>
+        <v>-0.2923984950379066</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1637194284475102</v>
       </c>
       <c r="E84" t="n">
-        <v>1.024281633632103</v>
+        <v>1.072379997890909</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.735799117614065</v>
+        <v>-1.856708620118396</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2259166652664699</v>
+        <v>-0.2497256694849181</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1474504330561202</v>
       </c>
       <c r="E85" t="n">
-        <v>1.217047402930506</v>
+        <v>1.227932061448231</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.686496213680259</v>
+        <v>-1.759022642548058</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1963550715698415</v>
+        <v>-0.2283753862515602</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1273761968586743</v>
       </c>
       <c r="E86" t="n">
-        <v>1.447558335475081</v>
+        <v>1.547394963883327</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.616424125653278</v>
+        <v>-1.725162667271795</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1348899670387671</v>
+        <v>-0.1519608493176716</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1053513751114545</v>
       </c>
       <c r="E87" t="n">
-        <v>1.65911784379966</v>
+        <v>1.775534778328265</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.551259259259841</v>
+        <v>-1.605298559200554</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06952945420114828</v>
+        <v>-0.08166975407705411</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08315272809736371</v>
       </c>
       <c r="E88" t="n">
-        <v>1.819702693126344</v>
+        <v>1.940858943758039</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.445252467619415</v>
+        <v>-1.468360648754227</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05993693824387813</v>
+        <v>-0.0853096539676895</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06238122096734784</v>
       </c>
       <c r="E89" t="n">
-        <v>1.950216391972673</v>
+        <v>2.115217886774356</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.336995741870899</v>
+        <v>-1.409612693720334</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01408896001328381</v>
+        <v>0.007491002690467403</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04421075493773917</v>
       </c>
       <c r="E90" t="n">
-        <v>2.065850740724551</v>
+        <v>2.259362594597408</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.160894961482128</v>
+        <v>-1.194503808486755</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06104556666499848</v>
+        <v>0.05069236565236489</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02956844264175752</v>
       </c>
       <c r="E91" t="n">
-        <v>2.102454146363632</v>
+        <v>2.30535118936485</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9897758651795375</v>
+        <v>-1.012063499287259</v>
       </c>
       <c r="G91" t="n">
-        <v>0.080099194251357</v>
+        <v>0.08047734670690235</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02073281712862341</v>
       </c>
       <c r="E92" t="n">
-        <v>2.079494890134093</v>
+        <v>2.306390743605577</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8129961624284942</v>
+        <v>-0.8470663846298486</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09554504300508013</v>
+        <v>0.09630572806044356</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01987293152206329</v>
       </c>
       <c r="E93" t="n">
-        <v>2.08145135457591</v>
+        <v>2.336209305766206</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6135886343645477</v>
+        <v>-0.6458410966927208</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0776652940838122</v>
+        <v>0.07943049222572081</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02933084580360539</v>
       </c>
       <c r="E94" t="n">
-        <v>2.030973111928924</v>
+        <v>2.284584925367856</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4525964316205</v>
+        <v>-0.4866651937737635</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0690218093856327</v>
+        <v>0.04888482611581992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05109830865028944</v>
       </c>
       <c r="E95" t="n">
-        <v>1.955986502027944</v>
+        <v>2.203196004588241</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2724761388374574</v>
+        <v>-0.2955229979524512</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04222700682127626</v>
+        <v>0.02176151273100902</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08615667495209717</v>
       </c>
       <c r="E96" t="n">
-        <v>1.827908163397251</v>
+        <v>2.049165311141647</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1582273757238517</v>
+        <v>-0.1497386561233086</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004138280353620383</v>
+        <v>0.008910169434830658</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1321550727549829</v>
       </c>
       <c r="E97" t="n">
-        <v>1.701557061658103</v>
+        <v>1.916842612710682</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07486300987723776</v>
+        <v>-0.04750462874979056</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02017252848797971</v>
+        <v>-0.01419363155570859</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1853104279934495</v>
       </c>
       <c r="E98" t="n">
-        <v>1.557143704986324</v>
+        <v>1.760559065059815</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.01053037089561867</v>
+        <v>0.03687009037573224</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04321646750679171</v>
+        <v>-0.01932862069143449</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2394352210333563</v>
       </c>
       <c r="E99" t="n">
-        <v>1.395801090700458</v>
+        <v>1.572859662636865</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03268997269146064</v>
+        <v>0.09027426939689973</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07005215141769359</v>
+        <v>-0.05105400565878961</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.289281780679945</v>
       </c>
       <c r="E100" t="n">
-        <v>1.263662358328948</v>
+        <v>1.432605982976085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0715549928233593</v>
+        <v>0.1766419541665129</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09243468865132394</v>
+        <v>-0.1064321696988656</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.328640793894852</v>
       </c>
       <c r="E101" t="n">
-        <v>1.099973446760992</v>
+        <v>1.256801592349768</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08119277027144761</v>
+        <v>0.1949699378516898</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07163192345205681</v>
+        <v>-0.04864638635688116</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3547598119135897</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9872708745756589</v>
+        <v>1.116966946491079</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07769011490135765</v>
+        <v>0.1921272242186906</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1088514693855014</v>
+        <v>-0.1421245053292197</v>
       </c>
     </row>
   </sheetData>
